--- a/URS/DbLayouts/L8-遵循法令作業/JcicZ054.xlsx
+++ b/URS/DbLayouts/L8-遵循法令作業/JcicZ054.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96BE349-245D-45E4-A34A-4F08B4BE810F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4DA350-4D3B-4B69-A0CA-32D0A7395059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="10656" yWindow="6336" windowWidth="12024" windowHeight="8832" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -236,10 +236,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>Index4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MaxMainCode</t>
   </si>
   <si>
@@ -273,22 +269,13 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>CustIdEq</t>
-  </si>
-  <si>
     <t>CustId=</t>
   </si>
   <si>
     <t>CustId ASC , RcDate DESC</t>
   </si>
   <si>
-    <t>RcDateEq</t>
-  </si>
-  <si>
     <t>RcDate=</t>
-  </si>
-  <si>
-    <t>CustRcEq</t>
   </si>
   <si>
     <t>CustId= , AND RcDate=</t>
@@ -361,12 +348,40 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>SubmitKey= , AND CustId= , AND RcDate= , AND MaxMainCode=</t>
+    <t>Index4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CustId,SubmitKey,RcDate,MaxMainCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <t>CustId,SubmitKey,RcDate,MaxMainCode,PayOffDate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubmitKey= , AND CustId= , AND RcDate= , AND MaxMainCode= , AND PayOffDate=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>custIdEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcDateEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custRcEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custRcSubEq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SubmitKey= , AND CustId= , AND RcDate= </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -532,7 +547,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -589,6 +604,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -935,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -952,23 +973,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
@@ -980,25 +1001,25 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="32.4">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="10"/>
@@ -1007,10 +1028,10 @@
       <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1020,10 +1041,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="13" t="s">
         <v>18</v>
       </c>
@@ -1033,10 +1054,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="13" t="s">
         <v>29</v>
       </c>
@@ -1047,11 +1068,11 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="19" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="10"/>
@@ -1059,180 +1080,172 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="13">
-        <v>1</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="14">
-        <v>1</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E11" s="14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E12" s="14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="G12" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E13" s="14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F13" s="14"/>
-      <c r="G13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>60</v>
       </c>
       <c r="E14" s="14">
+        <v>8</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="13">
+        <v>5</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="14">
         <v>3</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="194.4">
-      <c r="A15" s="13">
-        <v>6</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="14">
-        <v>1</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="32.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="194.4">
       <c r="A16" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E16" s="14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="32.4">
       <c r="A17" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>26</v>
@@ -1241,105 +1254,121 @@
         <v>8</v>
       </c>
       <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
+      <c r="G17" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E18" s="14">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="G18" s="13"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="14">
         <v>32</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="14">
-        <v>8</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E22" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="13"/>
+      <c r="A23" s="13">
+        <v>13</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="14">
+        <v>6</v>
+      </c>
       <c r="F23" s="14"/>
       <c r="G23" s="13"/>
     </row>
@@ -1380,10 +1409,6 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="13"/>
     </row>
@@ -1416,6 +1441,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="13"/>
     </row>
@@ -1481,7 +1510,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="13"/>
-      <c r="F48" s="13"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="13"/>
     </row>
     <row r="49" spans="1:7">
@@ -1491,10 +1520,6 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
     </row>
@@ -1706,7 +1731,13 @@
       <c r="G73" s="13"/>
     </row>
     <row r="74" spans="1:7">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
       <c r="C74" s="15"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7">
       <c r="C75" s="15"/>
@@ -1739,13 +1770,13 @@
       <c r="C84" s="15"/>
     </row>
     <row r="85" spans="2:5">
-      <c r="B85" s="13"/>
       <c r="C85" s="15"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
     </row>
     <row r="86" spans="2:5">
+      <c r="B86" s="13"/>
       <c r="C86" s="15"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
     </row>
     <row r="87" spans="2:5">
       <c r="C87" s="15"/>
@@ -1777,12 +1808,15 @@
     <row r="96" spans="2:5">
       <c r="C96" s="15"/>
     </row>
-    <row r="108" spans="3:3">
-      <c r="C108" s="15"/>
+    <row r="97" spans="3:3">
+      <c r="C97" s="15"/>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -1799,17 +1833,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="92.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
@@ -1827,65 +1861,76 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
